--- a/ExcelReportGenerator.Tests/TestData/DataSourcePanelEmptyIEnumerableRenderTest/TestRenderEmptyIEnumerableVerticalCellsShift.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourcePanelEmptyIEnumerableRenderTest/TestRenderEmptyIEnumerableVerticalCellsShift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>{di:Name}</x:t>
   </x:si>
@@ -409,7 +409,7 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="C2" s="1" t="s"/>
+      <x:c r="C2" s="1"/>
       <x:c r="D2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
